--- a/data/ramp/Tier1.xlsx
+++ b/data/ramp/Tier1.xlsx
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>180</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1140</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>1320</v>
+        <v>420</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -995,16 +995,16 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT3" t="n">
         <v>540</v>
       </c>
       <c r="AU3" t="n">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c r="AV3" t="n">
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
